--- a/simulation_data/one_step_algorithm/1s_error_level_12_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_12_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.74902402125207</v>
+        <v>89.44278503949053</v>
       </c>
       <c r="D2" t="n">
-        <v>4.890967691084329</v>
+        <v>4.116281586049453</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.80020805884097</v>
+        <v>88.66232173828882</v>
       </c>
       <c r="D3" t="n">
-        <v>4.559126141653316</v>
+        <v>4.505280069244264</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.4200581413526</v>
+        <v>88.30754122128404</v>
       </c>
       <c r="D4" t="n">
-        <v>4.525752815883389</v>
+        <v>4.58372656360181</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.56837346537995</v>
+        <v>87.64957559246278</v>
       </c>
       <c r="D5" t="n">
-        <v>4.366566176087034</v>
+        <v>4.803023415441568</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.09838309721836</v>
+        <v>86.41836583535076</v>
       </c>
       <c r="D6" t="n">
-        <v>4.998775909163424</v>
+        <v>3.925130987178375</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.88041536424855</v>
+        <v>85.57902061203053</v>
       </c>
       <c r="D7" t="n">
-        <v>5.061619335197297</v>
+        <v>4.752864158447462</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.11294631809537</v>
+        <v>84.05447158515375</v>
       </c>
       <c r="D8" t="n">
-        <v>4.495611015834445</v>
+        <v>4.743172667115723</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.96926486135209</v>
+        <v>83.15881295252673</v>
       </c>
       <c r="D9" t="n">
-        <v>5.21548769410186</v>
+        <v>4.35346156037365</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.07205739294263</v>
+        <v>81.53373826200088</v>
       </c>
       <c r="D10" t="n">
-        <v>4.980684796110586</v>
+        <v>4.120984842415643</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.07804963871671</v>
+        <v>81.04895258584169</v>
       </c>
       <c r="D11" t="n">
-        <v>4.597333795837832</v>
+        <v>4.439320206910765</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.98842547463823</v>
+        <v>79.57467913264354</v>
       </c>
       <c r="D12" t="n">
-        <v>4.503689394357542</v>
+        <v>4.195591764090466</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.15805820178372</v>
+        <v>79.19455757483713</v>
       </c>
       <c r="D13" t="n">
-        <v>4.472659243210348</v>
+        <v>5.159705943598047</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.8624452349458</v>
+        <v>77.78290040671786</v>
       </c>
       <c r="D14" t="n">
-        <v>4.51308276326233</v>
+        <v>4.713236002985749</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.24935216703155</v>
+        <v>77.3508618644827</v>
       </c>
       <c r="D15" t="n">
-        <v>4.073489671398395</v>
+        <v>4.726491270376262</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.00768967265357</v>
+        <v>75.44944364848554</v>
       </c>
       <c r="D16" t="n">
-        <v>4.276550896034403</v>
+        <v>4.322087571339202</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.82878864255892</v>
+        <v>74.97423961054854</v>
       </c>
       <c r="D17" t="n">
-        <v>4.084603625532703</v>
+        <v>4.782190171342167</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.64157372347688</v>
+        <v>74.1321653897302</v>
       </c>
       <c r="D18" t="n">
-        <v>4.826178856940789</v>
+        <v>4.626344930115967</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.51856220155101</v>
+        <v>72.95534673318966</v>
       </c>
       <c r="D19" t="n">
-        <v>4.605919148306841</v>
+        <v>5.330127437127806</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.84934888751168</v>
+        <v>71.7364045087939</v>
       </c>
       <c r="D20" t="n">
-        <v>4.898833324653177</v>
+        <v>4.683833423715574</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.77552811143184</v>
+        <v>71.19246609974769</v>
       </c>
       <c r="D21" t="n">
-        <v>5.707365989265272</v>
+        <v>4.939332402416095</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.49254123973114</v>
+        <v>70.38489985196529</v>
       </c>
       <c r="D22" t="n">
-        <v>4.049492719863876</v>
+        <v>4.69165419983534</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.49793497965007</v>
+        <v>69.03469916394558</v>
       </c>
       <c r="D23" t="n">
-        <v>4.803198299358436</v>
+        <v>5.655815585383088</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.45026971183719</v>
+        <v>67.78112742769072</v>
       </c>
       <c r="D24" t="n">
-        <v>4.3842137867858</v>
+        <v>4.936070454168516</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.52331733681902</v>
+        <v>66.83888021799383</v>
       </c>
       <c r="D25" t="n">
-        <v>4.500537608696452</v>
+        <v>4.591863395616728</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.60602277397456</v>
+        <v>65.37133192603056</v>
       </c>
       <c r="D26" t="n">
-        <v>5.509613612129805</v>
+        <v>4.848789187142736</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.73875821113383</v>
+        <v>65.28641605033708</v>
       </c>
       <c r="D27" t="n">
-        <v>4.601496388894108</v>
+        <v>5.180221093675009</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.60671675017475</v>
+        <v>64.00867885039551</v>
       </c>
       <c r="D28" t="n">
-        <v>4.391379111254859</v>
+        <v>4.944266362519114</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.97747143538738</v>
+        <v>62.65207703439013</v>
       </c>
       <c r="D29" t="n">
-        <v>4.887683263835242</v>
+        <v>4.364068995342941</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.97511547732895</v>
+        <v>62.52675684990138</v>
       </c>
       <c r="D30" t="n">
-        <v>4.877563666593825</v>
+        <v>4.677891635598028</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.87808062581248</v>
+        <v>60.31646493997206</v>
       </c>
       <c r="D31" t="n">
-        <v>5.098468270689943</v>
+        <v>5.209220172465728</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.14250039129687</v>
+        <v>59.35688708560519</v>
       </c>
       <c r="D32" t="n">
-        <v>4.844134574427509</v>
+        <v>5.059438441280988</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.56814657432671</v>
+        <v>58.14087269016471</v>
       </c>
       <c r="D33" t="n">
-        <v>4.78929266221063</v>
+        <v>4.730536139264485</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.86635858135141</v>
+        <v>58.26032450852554</v>
       </c>
       <c r="D34" t="n">
-        <v>5.341743169415317</v>
+        <v>5.443596701777413</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.53404321635545</v>
+        <v>56.92897105174444</v>
       </c>
       <c r="D35" t="n">
-        <v>4.952974785204487</v>
+        <v>4.815838766278744</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.63582048788754</v>
+        <v>55.9176289753772</v>
       </c>
       <c r="D36" t="n">
-        <v>5.337201187374131</v>
+        <v>5.04874351115473</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.12002934932909</v>
+        <v>54.83481517249361</v>
       </c>
       <c r="D37" t="n">
-        <v>4.866215604095652</v>
+        <v>4.816556419730932</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.53569547769796</v>
+        <v>53.91960125222725</v>
       </c>
       <c r="D38" t="n">
-        <v>4.977042812293074</v>
+        <v>4.674463622829535</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.84388991498368</v>
+        <v>53.64619624568548</v>
       </c>
       <c r="D39" t="n">
-        <v>5.630524040736047</v>
+        <v>4.880872655789182</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.88707754969342</v>
+        <v>50.84525772442616</v>
       </c>
       <c r="D40" t="n">
-        <v>4.962609915090502</v>
+        <v>5.213183960813751</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.01589115396864</v>
+        <v>50.52178441431556</v>
       </c>
       <c r="D41" t="n">
-        <v>4.713065626760563</v>
+        <v>5.270267007826765</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.40425839474128</v>
+        <v>49.77984733731497</v>
       </c>
       <c r="D42" t="n">
-        <v>5.122484488050641</v>
+        <v>4.732604955869093</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.42556207742921</v>
+        <v>48.65738419374718</v>
       </c>
       <c r="D43" t="n">
-        <v>5.158303849866619</v>
+        <v>4.976474316777102</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.96739441478297</v>
+        <v>47.26215209849154</v>
       </c>
       <c r="D44" t="n">
-        <v>5.382265141604932</v>
+        <v>4.905389939287551</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.34681106164162</v>
+        <v>47.38146490970354</v>
       </c>
       <c r="D45" t="n">
-        <v>5.887426500208378</v>
+        <v>5.653276185000916</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.46044579956872</v>
+        <v>46.03879702353623</v>
       </c>
       <c r="D46" t="n">
-        <v>4.977836685368355</v>
+        <v>4.295990306066608</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.64126078366079</v>
+        <v>45.18567935436415</v>
       </c>
       <c r="D47" t="n">
-        <v>4.375111630926129</v>
+        <v>5.050073773099415</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.89412813409126</v>
+        <v>44.7662957013455</v>
       </c>
       <c r="D48" t="n">
-        <v>5.380792349730349</v>
+        <v>4.73236949417496</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.88708629499278</v>
+        <v>43.50249211247111</v>
       </c>
       <c r="D49" t="n">
-        <v>4.964481492954301</v>
+        <v>5.09042941315713</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.42368853436629</v>
+        <v>42.38490645976668</v>
       </c>
       <c r="D50" t="n">
-        <v>5.336883683167043</v>
+        <v>4.946745210474359</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.61458556295782</v>
+        <v>40.67074041036231</v>
       </c>
       <c r="D51" t="n">
-        <v>5.147363482638604</v>
+        <v>4.843241114435925</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.27711959011664</v>
+        <v>39.79121662586591</v>
       </c>
       <c r="D52" t="n">
-        <v>4.89587022490344</v>
+        <v>5.357224193662518</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.99360157015433</v>
+        <v>39.48514905109814</v>
       </c>
       <c r="D53" t="n">
-        <v>5.428550344624572</v>
+        <v>5.321796614714496</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.47858405384229</v>
+        <v>37.96312963974021</v>
       </c>
       <c r="D54" t="n">
-        <v>5.599023545840662</v>
+        <v>5.267130228696126</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.20952397271914</v>
+        <v>36.84607881343828</v>
       </c>
       <c r="D55" t="n">
-        <v>5.339464150368891</v>
+        <v>5.40521052735791</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.47897423101166</v>
+        <v>35.46538135512347</v>
       </c>
       <c r="D56" t="n">
-        <v>5.062900512154632</v>
+        <v>4.601694267593402</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.59442228874251</v>
+        <v>34.77927738517641</v>
       </c>
       <c r="D57" t="n">
-        <v>5.206902930136748</v>
+        <v>5.1963624017523</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.73552843943176</v>
+        <v>33.67593763577461</v>
       </c>
       <c r="D58" t="n">
-        <v>5.177914885478851</v>
+        <v>4.346392613912336</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.34237863683654</v>
+        <v>32.20715942350753</v>
       </c>
       <c r="D59" t="n">
-        <v>5.132121230868124</v>
+        <v>5.39783041972497</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.7790245073956</v>
+        <v>31.40532826445996</v>
       </c>
       <c r="D60" t="n">
-        <v>5.724309219709832</v>
+        <v>5.274731571044823</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.16872836650233</v>
+        <v>31.99593658395929</v>
       </c>
       <c r="D61" t="n">
-        <v>5.369348467053085</v>
+        <v>6.013067797902046</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.51091735994606</v>
+        <v>29.88786645708591</v>
       </c>
       <c r="D62" t="n">
-        <v>5.313241007184226</v>
+        <v>5.053827610787909</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.97539464568609</v>
+        <v>28.42307133794318</v>
       </c>
       <c r="D63" t="n">
-        <v>5.275541678834405</v>
+        <v>5.491068875961635</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.89260760006776</v>
+        <v>28.2555156943416</v>
       </c>
       <c r="D64" t="n">
-        <v>5.348943271956169</v>
+        <v>5.74778774807857</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.358854774995</v>
+        <v>27.30921170502456</v>
       </c>
       <c r="D65" t="n">
-        <v>4.797278021884156</v>
+        <v>6.417975740344011</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.43433470603931</v>
+        <v>25.89696975247108</v>
       </c>
       <c r="D66" t="n">
-        <v>5.64874660165396</v>
+        <v>5.788359903499837</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.08491722497794</v>
+        <v>25.20648318184528</v>
       </c>
       <c r="D67" t="n">
-        <v>4.99321856428927</v>
+        <v>5.904976417774572</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.07773240490267</v>
+        <v>24.53265879892813</v>
       </c>
       <c r="D68" t="n">
-        <v>5.309155952754494</v>
+        <v>5.188393964846878</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.37531313165546</v>
+        <v>23.93704547278864</v>
       </c>
       <c r="D69" t="n">
-        <v>6.822764718112485</v>
+        <v>5.872434015156583</v>
       </c>
     </row>
   </sheetData>
